--- a/AcceptedCaseSample.xlsx
+++ b/AcceptedCaseSample.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="110">
   <si>
     <t>uuid</t>
   </si>
@@ -119,124 +119,136 @@
     <t>unemploymentBenefitRHistory</t>
   </si>
   <si>
-    <t>IZNRBXOYU6T26H0A</t>
-  </si>
-  <si>
-    <t>1965-01-13</t>
+    <t>1WEC5TOI63P0AFNM</t>
+  </si>
+  <si>
+    <t>1989-07-03</t>
   </si>
   <si>
     <t>female</t>
   </si>
   <si>
+    <t>Ελληνική</t>
+  </si>
+  <si>
+    <t>notmarried</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>employed</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2539</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>6287.0</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>2021-02-15 04:53:42==891|</t>
+  </si>
+  <si>
+    <t>2021-02-15 04:53:42==0|</t>
+  </si>
+  <si>
+    <t>2021-02-15 04:53:42==2539|</t>
+  </si>
+  <si>
+    <t>2021-02-15 04:53:42==275|</t>
+  </si>
+  <si>
+    <t>2021-02-15 04:53:42==43|</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1GWPHMP63X6LJ05Z</t>
+  </si>
+  <si>
+    <t>1993-08-24</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>2021-02-15 04:53:42==50|</t>
+  </si>
+  <si>
+    <t>2021-02-15 04:53:42==8|</t>
+  </si>
+  <si>
+    <t>2021-02-15 04:53:42==6|</t>
+  </si>
+  <si>
+    <t>2021-02-15 04:53:42==2|</t>
+  </si>
+  <si>
+    <t>MMKEEFJICTNH9421</t>
+  </si>
+  <si>
+    <t>1939-03-15</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
     <t>Άλλο</t>
   </si>
   <si>
-    <t>married</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>unemployed</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>4074.0</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==1911|</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==0|</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==920|</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==190|</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==133|</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>LIMI0VFRPM2UHO9H</t>
-  </si>
-  <si>
-    <t>2011-09-04</t>
-  </si>
-  <si>
-    <t>Ελληνική</t>
-  </si>
-  <si>
-    <t>nonMarried</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>619.0</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==94|</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==239|</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==45|</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==2|</t>
-  </si>
-  <si>
-    <t>H17ILO2I22P9XK24</t>
-  </si>
-  <si>
-    <t>2016-11-10</t>
+    <t>14</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>2021-02-10 04:33:38==1|</t>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>2021-02-15 04:53:42==14|</t>
+  </si>
+  <si>
+    <t>2021-02-15 04:53:42==1|</t>
+  </si>
+  <si>
+    <t>IDVMNZPZYQGHM7WZ</t>
+  </si>
+  <si>
+    <t>1978-04-08</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>Uuid</t>
@@ -263,7 +275,7 @@
     <t>Current Sum</t>
   </si>
   <si>
-    <t>2021-04-01 18:07:00</t>
+    <t>2021-02-16 11:02:46</t>
   </si>
   <si>
     <t>ACCEPTED</t>
@@ -275,10 +287,10 @@
     <t>REJECTION0</t>
   </si>
   <si>
-    <t>5.28</t>
-  </si>
-  <si>
-    <t>10.56</t>
+    <t>7.85</t>
+  </si>
+  <si>
+    <t>39.25</t>
   </si>
   <si>
     <t>History Date</t>
@@ -293,82 +305,31 @@
     <t>History Daily Sum</t>
   </si>
   <si>
-    <t>2021-02-10 00:00:00</t>
+    <t>2021-02-15 00:00:00</t>
   </si>
   <si>
     <t>UNDEFINED</t>
   </si>
   <si>
-    <t>2021-02-26 14:14:00</t>
-  </si>
-  <si>
-    <t>5.66</t>
-  </si>
-  <si>
-    <t>2021-02-27 14:14:00</t>
-  </si>
-  <si>
-    <t>11.32</t>
-  </si>
-  <si>
-    <t>2021-02-28 15:35:00</t>
-  </si>
-  <si>
-    <t>16.98</t>
-  </si>
-  <si>
-    <t>2021-03-01 15:35:00</t>
-  </si>
-  <si>
-    <t>5.11</t>
-  </si>
-  <si>
-    <t>2021-03-02 15:35:00</t>
-  </si>
-  <si>
-    <t>10.22</t>
-  </si>
-  <si>
-    <t>2021-03-03 15:35:00</t>
-  </si>
-  <si>
-    <t>15.33</t>
-  </si>
-  <si>
-    <t>2021-03-04 15:54:00</t>
-  </si>
-  <si>
-    <t>20.44</t>
-  </si>
-  <si>
-    <t>2021-03-05 16:10:00</t>
-  </si>
-  <si>
-    <t>25.55</t>
-  </si>
-  <si>
-    <t>2021-03-06 17:54:00</t>
-  </si>
-  <si>
-    <t>30.66</t>
-  </si>
-  <si>
-    <t>2021-03-07 17:54:00</t>
-  </si>
-  <si>
-    <t>35.77</t>
-  </si>
-  <si>
-    <t>2021-03-08 17:54:00</t>
-  </si>
-  <si>
-    <t>40.88</t>
-  </si>
-  <si>
-    <t>2021-03-31 18:07:00</t>
-  </si>
-  <si>
-    <t>45.99</t>
+    <t>2021-02-15 17:54:14</t>
+  </si>
+  <si>
+    <t>2021-02-16 10:39:15</t>
+  </si>
+  <si>
+    <t>15.70</t>
+  </si>
+  <si>
+    <t>23.55</t>
+  </si>
+  <si>
+    <t>2021-02-16 10:44:56</t>
+  </si>
+  <si>
+    <t>2021-02-16 10:50:06</t>
+  </si>
+  <si>
+    <t>31.40</t>
   </si>
   <si>
     <t>Payment Date</t>
@@ -381,9 +342,6 @@
   </si>
   <si>
     <t>Actual Payment Value</t>
-  </si>
-  <si>
-    <t>PAID</t>
   </si>
 </sst>
 </file>
@@ -457,47 +415,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI26"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.9375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.87109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="30.875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="21.0859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="24.265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="26.83203125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="18.21484375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.3671875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.15625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.6875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="15.7421875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="18.75390625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="33.40625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="21.546875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="9.33984375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.4765625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="13.53515625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="23.8359375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="14.6875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="29.66015625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="27.0" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="20.421875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.8046875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.68359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="9.6015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="34.7890625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="30.53515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="30.53515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="33.37109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.37109375" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="33.37109375" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="39.2265625" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="36.5625" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="42.96875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.00390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="32.95703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="28.65625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="23.83984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.26953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.2265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.72265625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.5078125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="17.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="15.55859375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="17.875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="20.96875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="37.21875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="24.39453125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="10.75" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="22.80078125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="15.234375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="26.98828125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="16.61328125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="33.62109375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="30.7734375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="22.94140625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="22.36328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.71484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="11.15234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="35.26171875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="32.29296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="32.29296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="36.74609375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="35.2890625" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="33.77734375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="41.6640625" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="48.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -651,7 +609,7 @@
         <v>44</v>
       </c>
       <c r="O2" t="s" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s" s="1">
         <v>44</v>
@@ -725,10 +683,10 @@
         <v>37</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s" s="1">
         <v>40</v>
@@ -737,79 +695,79 @@
         <v>41</v>
       </c>
       <c r="H3" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="I3" t="s" s="1">
+      <c r="R3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="J3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s" s="1">
+      <c r="U3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="V3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="W3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="X3" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="Y3" t="s" s="1">
         <v>62</v>
-      </c>
-      <c r="M3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="O3" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="P3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="Q3" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="R3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="T3" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="U3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="V3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="W3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="X3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="Y3" t="s" s="1">
-        <v>65</v>
       </c>
       <c r="Z3" t="s" s="1">
         <v>49</v>
       </c>
       <c r="AA3" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AB3" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="AD3" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE3" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AF3" t="s" s="1">
         <v>66</v>
-      </c>
-      <c r="AB3" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AC3" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AD3" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE3" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF3" t="s" s="1">
-        <v>69</v>
       </c>
       <c r="AG3" t="s" s="1">
         <v>51</v>
@@ -823,19 +781,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="B4" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>58</v>
-      </c>
       <c r="E4" t="s" s="1">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s" s="1">
         <v>40</v>
@@ -844,11 +802,11 @@
         <v>41</v>
       </c>
       <c r="H4" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="I4" t="s" s="1">
-        <v>64</v>
-      </c>
       <c r="J4" t="s" s="1">
         <v>44</v>
       </c>
@@ -856,7 +814,7 @@
         <v>44</v>
       </c>
       <c r="L4" t="s" s="1">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s" s="1">
         <v>44</v>
@@ -865,7 +823,7 @@
         <v>44</v>
       </c>
       <c r="O4" t="s" s="1">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s" s="1">
         <v>44</v>
@@ -901,7 +859,7 @@
         <v>49</v>
       </c>
       <c r="AA4" t="s" s="1">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="s" s="1">
         <v>51</v>
@@ -910,10 +868,10 @@
         <v>51</v>
       </c>
       <c r="AD4" t="s" s="1">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="s" s="1">
         <v>51</v>
@@ -928,137 +886,230 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s" s="3">
+    <row r="5">
+      <c r="A5" t="s" s="1">
         <v>76</v>
       </c>
-      <c r="C6" t="s" s="3">
+      <c r="B5" t="s" s="1">
         <v>77</v>
       </c>
-      <c r="D6" t="s" s="3">
+      <c r="C5" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="R5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="T5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="U5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="V5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="W5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="X5" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="Y5" t="s" s="1">
         <v>78</v>
       </c>
-      <c r="E6" t="s" s="3">
+      <c r="Z5" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="AA5" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="AD5" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="AE5" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="AF5" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="AH5" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="AI5" t="s" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="3">
         <v>79</v>
       </c>
-      <c r="F6" t="s" s="3">
+      <c r="B7" t="s" s="3">
         <v>80</v>
       </c>
-      <c r="G6" t="s" s="3">
+      <c r="C7" t="s" s="3">
         <v>81</v>
       </c>
-      <c r="H6" t="s" s="3">
+      <c r="D7" t="s" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="1">
+      <c r="E7" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="H7" t="s" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="B7" t="s" s="1">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s" s="1">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s" s="1">
+      <c r="B8" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="F7" t="s" s="1">
-        <v>86</v>
-      </c>
-      <c r="G7" t="s" s="1">
-        <v>87</v>
-      </c>
-      <c r="H7" t="s" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="4">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s" s="4">
+      <c r="F8" t="s" s="1">
         <v>90</v>
       </c>
-      <c r="C9" t="s" s="4">
+      <c r="G8" t="s" s="1">
         <v>91</v>
       </c>
-      <c r="D9" t="s" s="4">
+      <c r="H8" t="s" s="1">
         <v>92</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="1">
+      <c r="A10" t="s" s="4">
         <v>93</v>
       </c>
-      <c r="B10" t="s" s="1">
+      <c r="B10" t="s" s="4">
         <v>94</v>
       </c>
-      <c r="C10" t="s" s="1">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s" s="1">
-        <v>85</v>
+      <c r="C10" t="s" s="4">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s" s="4">
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s" s="1">
         <v>102</v>
@@ -1069,153 +1120,41 @@
         <v>103</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s" s="1">
         <v>102</v>
-      </c>
-      <c r="D15" t="s" s="1">
-        <v>104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s" s="1">
         <v>105</v>
       </c>
-      <c r="B16" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s" s="1">
-        <v>102</v>
-      </c>
-      <c r="D16" t="s" s="1">
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="5">
         <v>106</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="1">
+      <c r="B18" t="s" s="5">
         <v>107</v>
       </c>
-      <c r="B17" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s" s="1">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s" s="1">
+      <c r="C18" t="s" s="5">
         <v>108</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="1">
+      <c r="D18" t="s" s="5">
         <v>109</v>
-      </c>
-      <c r="B18" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s" s="1">
-        <v>102</v>
-      </c>
-      <c r="D18" t="s" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="B19" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s" s="1">
-        <v>102</v>
-      </c>
-      <c r="D19" t="s" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="1">
-        <v>113</v>
-      </c>
-      <c r="B20" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s" s="1">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="1">
-        <v>115</v>
-      </c>
-      <c r="B21" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s" s="1">
-        <v>102</v>
-      </c>
-      <c r="D21" t="s" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="1">
-        <v>117</v>
-      </c>
-      <c r="B22" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s" s="1">
-        <v>102</v>
-      </c>
-      <c r="D22" t="s" s="1">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="1">
-        <v>83</v>
-      </c>
-      <c r="B23" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s" s="1">
-        <v>87</v>
-      </c>
-      <c r="D23" t="s" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="5">
-        <v>119</v>
-      </c>
-      <c r="B25" t="s" s="5">
-        <v>120</v>
-      </c>
-      <c r="C25" t="s" s="5">
-        <v>121</v>
-      </c>
-      <c r="D25" t="s" s="5">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="1">
-        <v>101</v>
-      </c>
-      <c r="B26" t="s" s="1">
-        <v>123</v>
-      </c>
-      <c r="C26" t="s" s="1">
-        <v>100</v>
-      </c>
-      <c r="D26" t="s" s="1">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/AcceptedCaseSample.xlsx
+++ b/AcceptedCaseSample.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t>uuid</t>
   </si>
@@ -119,19 +119,19 @@
     <t>unemploymentBenefitRHistory</t>
   </si>
   <si>
-    <t>1WEC5TOI63P0AFNM</t>
-  </si>
-  <si>
-    <t>1989-07-03</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Ελληνική</t>
-  </si>
-  <si>
-    <t>notmarried</t>
+    <t>0EH5YYCMUOWI625T</t>
+  </si>
+  <si>
+    <t>1960-01-19</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Άλλο</t>
+  </si>
+  <si>
+    <t>married</t>
   </si>
   <si>
     <t>none</t>
@@ -143,114 +143,45 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>891</t>
+    <t>294</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2539</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>6287.0</t>
+    <t>234</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>1839.0</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
-    <t>2021-02-15 04:53:42==891|</t>
-  </si>
-  <si>
-    <t>2021-02-15 04:53:42==0|</t>
-  </si>
-  <si>
-    <t>2021-02-15 04:53:42==2539|</t>
-  </si>
-  <si>
-    <t>2021-02-15 04:53:42==275|</t>
-  </si>
-  <si>
-    <t>2021-02-15 04:53:42==43|</t>
+    <t>2021-02-16 02:55:42==294|</t>
+  </si>
+  <si>
+    <t>2021-02-16 02:55:42==0|</t>
+  </si>
+  <si>
+    <t>2021-02-16 02:55:42==234|</t>
+  </si>
+  <si>
+    <t>2021-02-16 02:55:42==1041|</t>
+  </si>
+  <si>
+    <t>2021-02-16 02:55:42==36|</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1GWPHMP63X6LJ05Z</t>
-  </si>
-  <si>
-    <t>1993-08-24</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>2021-02-15 04:53:42==50|</t>
-  </si>
-  <si>
-    <t>2021-02-15 04:53:42==8|</t>
-  </si>
-  <si>
-    <t>2021-02-15 04:53:42==6|</t>
-  </si>
-  <si>
-    <t>2021-02-15 04:53:42==2|</t>
-  </si>
-  <si>
-    <t>MMKEEFJICTNH9421</t>
-  </si>
-  <si>
-    <t>1939-03-15</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Άλλο</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>2021-02-15 04:53:42==14|</t>
-  </si>
-  <si>
-    <t>2021-02-15 04:53:42==1|</t>
-  </si>
-  <si>
-    <t>IDVMNZPZYQGHM7WZ</t>
-  </si>
-  <si>
-    <t>1978-04-08</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>Uuid</t>
   </si>
   <si>
@@ -275,7 +206,7 @@
     <t>Current Sum</t>
   </si>
   <si>
-    <t>2021-02-16 11:02:46</t>
+    <t>2021-02-17 13:07:44</t>
   </si>
   <si>
     <t>ACCEPTED</t>
@@ -287,10 +218,10 @@
     <t>REJECTION0</t>
   </si>
   <si>
-    <t>7.85</t>
-  </si>
-  <si>
-    <t>39.25</t>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t>11.28</t>
   </si>
   <si>
     <t>History Date</t>
@@ -305,31 +236,55 @@
     <t>History Daily Sum</t>
   </si>
   <si>
-    <t>2021-02-15 00:00:00</t>
+    <t>2021-02-16 00:00:00</t>
   </si>
   <si>
     <t>UNDEFINED</t>
   </si>
   <si>
-    <t>2021-02-15 17:54:14</t>
-  </si>
-  <si>
-    <t>2021-02-16 10:39:15</t>
-  </si>
-  <si>
-    <t>15.70</t>
-  </si>
-  <si>
-    <t>23.55</t>
-  </si>
-  <si>
-    <t>2021-02-16 10:44:56</t>
-  </si>
-  <si>
-    <t>2021-02-16 10:50:06</t>
-  </si>
-  <si>
-    <t>31.40</t>
+    <t>2021-02-18 10:18:25</t>
+  </si>
+  <si>
+    <t>2021-02-19 10:18:25</t>
+  </si>
+  <si>
+    <t>2021-02-20 10:18:25</t>
+  </si>
+  <si>
+    <t>16.92</t>
+  </si>
+  <si>
+    <t>2021-02-21 10:18:25</t>
+  </si>
+  <si>
+    <t>22.56</t>
+  </si>
+  <si>
+    <t>2021-02-22 10:18:25</t>
+  </si>
+  <si>
+    <t>28.20</t>
+  </si>
+  <si>
+    <t>2021-02-23 10:18:25</t>
+  </si>
+  <si>
+    <t>33.84</t>
+  </si>
+  <si>
+    <t>2021-02-17 12:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-24 12:40:52</t>
+  </si>
+  <si>
+    <t>45.12</t>
+  </si>
+  <si>
+    <t>2021-02-25 12:40:52</t>
+  </si>
+  <si>
+    <t>50.76</t>
   </si>
   <si>
     <t>Payment Date</t>
@@ -415,13 +370,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.00390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.44140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="26.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="32.95703125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="28.65625" customWidth="true" bestFit="true"/>
@@ -447,12 +402,12 @@
     <col min="24" max="24" width="22.36328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.71484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="11.15234375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="35.26171875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="32.29296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="32.29296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="36.74609375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="26.40234375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="28.109375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="26.44921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="28.76953125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.2890625" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="33.77734375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="27.5078125" customWidth="true" bestFit="true"/>
     <col min="33" max="33" width="44.51171875" customWidth="true" bestFit="true"/>
     <col min="34" max="34" width="41.6640625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="48.109375" customWidth="true" bestFit="true"/>
@@ -672,489 +627,224 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="1">
+    <row r="4">
+      <c r="A4" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="B3" t="s" s="1">
+      <c r="B4" t="s" s="3">
         <v>57</v>
       </c>
-      <c r="C3" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s" s="1">
+      <c r="C4" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="J3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s" s="1">
+      <c r="D4" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="M3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="O3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="P3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="Q3" t="s" s="1">
+      <c r="E4" t="s" s="3">
         <v>60</v>
       </c>
-      <c r="R3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="T3" t="s" s="1">
+      <c r="F4" t="s" s="3">
         <v>61</v>
       </c>
-      <c r="U3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="V3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="W3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="X3" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="Y3" t="s" s="1">
+      <c r="G4" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="Z3" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="AA3" t="s" s="1">
+      <c r="H4" t="s" s="3">
         <v>63</v>
-      </c>
-      <c r="AB3" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AC3" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AD3" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AE3" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AF3" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AG3" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AH3" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AI3" t="s" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="M4" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="P4" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="Q4" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="R4" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="S4" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="T4" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="U4" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="V4" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="W4" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="X4" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="Y4" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="Z4" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="AA4" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AB4" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AC4" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AD4" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AE4" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AF4" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AH4" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AI4" t="s" s="1">
-        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s" s="1">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="N5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="O5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="P5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="Q5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="R5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="S5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="T5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="U5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="V5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="W5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="X5" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="Y5" t="s" s="1">
-        <v>78</v>
-      </c>
-      <c r="Z5" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="AA5" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AB5" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AC5" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AD5" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AE5" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AF5" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AH5" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="AI5" t="s" s="1">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="3">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="H7" t="s" s="3">
-        <v>86</v>
+      <c r="A7" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s" s="4">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s" s="4">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>89</v>
-      </c>
-      <c r="E8" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s" s="1">
-        <v>90</v>
-      </c>
-      <c r="G8" t="s" s="1">
-        <v>91</v>
-      </c>
-      <c r="H8" t="s" s="1">
-        <v>92</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="4">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>94</v>
-      </c>
-      <c r="C10" t="s" s="4">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s" s="4">
-        <v>96</v>
+      <c r="A10" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s" s="1">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s" s="1">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s" s="1">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s" s="1">
         <v>88</v>
       </c>
-      <c r="C16" t="s" s="1">
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="5">
         <v>91</v>
       </c>
-      <c r="D16" t="s" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="5">
-        <v>106</v>
-      </c>
-      <c r="B18" t="s" s="5">
-        <v>107</v>
-      </c>
-      <c r="C18" t="s" s="5">
-        <v>108</v>
-      </c>
-      <c r="D18" t="s" s="5">
-        <v>109</v>
+      <c r="B19" t="s" s="5">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s" s="5">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s" s="5">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
